--- a/biology/Botanique/Rubus_odoratus/Rubus_odoratus.xlsx
+++ b/biology/Botanique/Rubus_odoratus/Rubus_odoratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ronce odorante (Rubus odoratus) est une espèce de plantes à fleurs de la famille des Rosacées et du genre Rubus. Elle fleurit en Mai-Juin et produit ses fruits en juillet et août. Le fruit a la forme d'une grosse framboise plate, avec beaucoup de pépins, rugueuse au toucher.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus odoratus peut atteindre trois mètres de haut, ses turions sont poilus et dépourvus d'épines. Il comporte des feuilles simples de dix à trente centimètres de large, recouverts de fins poils courts sur leur partie inférieure.
 Les fleurs d'un diamètre de trois à cinq centimètres, sont roses à presque rouge. l'inflorescence de cette ronce est une grappe. La floraison dégage un parfum doux et sucré en mai-juin. Les fruits, de grosses framboises plates et rugueuses avec beaucoup de pépins, sont fragiles et s'émiettent fréquemment à la cueillette. Leur goût est très apprécié en confiture.
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette ronce dans les Landes, près des marais et des tourbières.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit naturellement en Amérique du Nord, notamment au Canada.
 Ce framboisier a été introduit en Europe en 1770.
@@ -606,9 +624,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les ethnobotanistes Jacques Rousseau, alors directeur du jardin botanique de Montréal, et Raymon Marcel du jardin botanique de Montréal (1945), chez les amérindiens du nord-est, les feuilles de la ronce odorante étaient « placées, comme protection, au fond des chaussures » (mocassins)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les ethnobotanistes Jacques Rousseau, alors directeur du jardin botanique de Montréal, et Raymon Marcel du jardin botanique de Montréal (1945), chez les amérindiens du nord-est, les feuilles de la ronce odorante étaient « placées, comme protection, au fond des chaussures » (mocassins).
 </t>
         </is>
       </c>
